--- a/DocumentTemplates/Report_Da Noi_Airbnb_2025-04-01_2025-04-30.xlsx
+++ b/DocumentTemplates/Report_Da Noi_Airbnb_2025-04-01_2025-04-30.xlsx
@@ -672,20 +672,20 @@
       </x:c>
       <x:c r="P1" s="2"/>
       <x:c r="Q1" s="5" t="n">
-        <x:v>0.100</x:v>
+        <x:v>0.10</x:v>
       </x:c>
       <x:c r="R1" s="6" t="n">
-        <x:v>0.04</x:v>
+        <x:v>0.03</x:v>
       </x:c>
       <x:c r="S1" s="7" t="n">
-        <x:v>0.140</x:v>
+        <x:v>0.01</x:v>
       </x:c>
       <x:c r="T1" s="8"/>
       <x:c r="U1" s="6" t="n">
-        <x:v>0.220</x:v>
+        <x:v>0.22</x:v>
       </x:c>
       <x:c r="X1" s="5" t="n">
-        <x:v>0.210</x:v>
+        <x:v>0.21</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
@@ -776,19 +776,19 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>10-04-2025</x:v>
+        <x:v>01-04-2025</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Mara Chella</x:v>
+        <x:v>Enzo Renzi</x:v>
       </x:c>
       <x:c t="str">
         <x:v>A</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>2</x:v>
+        <x:v>150</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
       </x:c>
       <x:c t="n">
         <x:v>1</x:v>
@@ -797,10 +797,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>80.00</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>600.00</x:v>
       </x:c>
       <x:c t="n">
         <x:v>0</x:v>
@@ -809,46 +809,46 @@
         <x:v>0.00</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>80.00</x:v>
+        <x:v>600.00</x:v>
       </x:c>
       <x:c t="n">
         <x:v>10.00</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>0.08</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>11.200000000000001</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>11.280000000000001</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>2.4816000000000003</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>13.761600000000001</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>76.2384</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>17.22</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>59.0184</x:v>
+        <x:v>610</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0.12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6.12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1.3464</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7.4664</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>602.5336</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>115.5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>487.0336</x:v>
       </x:c>
       <x:c t="n">
         <x:v>0</x:v>
